--- a/usefulTools/TestFilesAndDocuments/steering committee/NeCTAR/NeCTAR Reporting/RT029 Report Sep 30 - 2013.xlsx
+++ b/usefulTools/TestFilesAndDocuments/steering committee/NeCTAR/NeCTAR Reporting/RT029 Report Sep 30 - 2013.xlsx
@@ -45091,7 +45091,7 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
